--- a/artfynd/A 56863-2024 artfynd.xlsx
+++ b/artfynd/A 56863-2024 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY354"/>
+  <dimension ref="A1:AY355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41100,6 +41100,131 @@
       </c>
       <c r="AY354" t="inlineStr"/>
     </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>131278735</v>
+      </c>
+      <c r="B355" t="n">
+        <v>99015</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E355" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L355" t="inlineStr"/>
+      <c r="N355" t="inlineStr"/>
+      <c r="P355" t="inlineStr">
+        <is>
+          <t>Tebroängen, Västgötetorp, Vstm</t>
+        </is>
+      </c>
+      <c r="Q355" t="n">
+        <v>471200</v>
+      </c>
+      <c r="R355" t="n">
+        <v>6609591</v>
+      </c>
+      <c r="S355" t="n">
+        <v>10</v>
+      </c>
+      <c r="T355" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U355" t="inlineStr">
+        <is>
+          <t>Hällefors</t>
+        </is>
+      </c>
+      <c r="V355" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W355" t="inlineStr">
+        <is>
+          <t>Grythyttan</t>
+        </is>
+      </c>
+      <c r="X355" t="inlineStr">
+        <is>
+          <t>T-Häl-0023</t>
+        </is>
+      </c>
+      <c r="Y355" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="AA355" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="AC355" t="inlineStr">
+        <is>
+          <t>28 plantor, varav en i blom.</t>
+        </is>
+      </c>
+      <c r="AD355" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE355" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF355" t="inlineStr"/>
+      <c r="AG355" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI355" t="inlineStr">
+        <is>
+          <t>Krön på moränrygg, i beståndsgränsen mellan äldre flerskiktad barrnaturskog i S och ett yngre granbestånd i N.</t>
+        </is>
+      </c>
+      <c r="AT355" t="inlineStr"/>
+      <c r="AW355" t="inlineStr">
+        <is>
+          <t>Sofia Lund</t>
+        </is>
+      </c>
+      <c r="AX355" t="inlineStr">
+        <is>
+          <t>Michael Andersson</t>
+        </is>
+      </c>
+      <c r="AY355" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 56863-2024 artfynd.xlsx
+++ b/artfynd/A 56863-2024 artfynd.xlsx
@@ -41105,7 +41105,7 @@
         <v>131278735</v>
       </c>
       <c r="B355" t="n">
-        <v>99015</v>
+        <v>99018</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
